--- a/script/Pr_temp_spreadsheets/05_00_ARC05_6_1.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_6_1.xlsx
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f0ca06fb-45ba-4b36-addf-d064552dbc6f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c379fb0b-774a-4e41-bda4-ff41aac65ecf}">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1079,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a78d9fef-96c6-4a74-b5f5-d166f841e0a9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2195d197-8e0c-43ee-a276-c21bc8e86d5b}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
